--- a/2022/Symphony/Others/Model Wise Stock Imei List of Mugdho Corporation.xlsx
+++ b/2022/Symphony/Others/Model Wise Stock Imei List of Mugdho Corporation.xlsx
@@ -522,7 +522,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -946,9 +946,6 @@
       <c r="G5" s="1">
         <v>352611791172461</v>
       </c>
-      <c r="H5" s="1">
-        <v>354150814989385</v>
-      </c>
       <c r="I5" s="1">
         <v>350954042335343</v>
       </c>
@@ -1035,9 +1032,6 @@
       <c r="G6" s="1">
         <v>352611791354069</v>
       </c>
-      <c r="H6" s="1">
-        <v>354150814989369</v>
-      </c>
       <c r="I6" s="1">
         <v>350954043122021</v>
       </c>
@@ -1124,9 +1118,6 @@
       <c r="G7" s="1">
         <v>352611791982166</v>
       </c>
-      <c r="H7" s="1">
-        <v>354150814989401</v>
-      </c>
       <c r="I7" s="1">
         <v>350954042921589</v>
       </c>
@@ -1210,9 +1201,6 @@
       <c r="G8" s="1">
         <v>352611791171828</v>
       </c>
-      <c r="H8" s="1">
-        <v>354150814996984</v>
-      </c>
       <c r="I8" s="1">
         <v>350954042921787</v>
       </c>
@@ -1296,9 +1284,6 @@
       <c r="G9" s="1">
         <v>352611791152968</v>
       </c>
-      <c r="H9" s="1">
-        <v>354150814997149</v>
-      </c>
       <c r="I9" s="1">
         <v>350954042913701</v>
       </c>
@@ -1382,9 +1367,6 @@
       <c r="G10" s="1">
         <v>352611791172065</v>
       </c>
-      <c r="H10" s="1">
-        <v>354150814997065</v>
-      </c>
       <c r="I10" s="1">
         <v>350954043127442</v>
       </c>
@@ -1468,9 +1450,6 @@
       <c r="G11" s="1">
         <v>352611791169863</v>
       </c>
-      <c r="H11" s="1">
-        <v>354150814997420</v>
-      </c>
       <c r="I11" s="1">
         <v>350954042912562</v>
       </c>
@@ -1554,9 +1533,6 @@
       <c r="G12" s="1">
         <v>352611791153081</v>
       </c>
-      <c r="H12" s="1">
-        <v>354150814996083</v>
-      </c>
       <c r="I12" s="1">
         <v>350954042912604</v>
       </c>
@@ -1640,9 +1616,6 @@
       <c r="G13" s="1">
         <v>352611791172321</v>
       </c>
-      <c r="H13" s="1">
-        <v>354150814997305</v>
-      </c>
       <c r="I13" s="1">
         <v>350954042864706</v>
       </c>
@@ -1726,9 +1699,6 @@
       <c r="G14" s="1">
         <v>352611791152943</v>
       </c>
-      <c r="H14" s="1">
-        <v>354150814995705</v>
-      </c>
       <c r="I14" s="1">
         <v>350954042864763</v>
       </c>
@@ -1812,9 +1782,6 @@
       <c r="G15" s="1">
         <v>352611792271742</v>
       </c>
-      <c r="H15" s="1">
-        <v>354150814997180</v>
-      </c>
       <c r="I15" s="1">
         <v>350954042864748</v>
       </c>
@@ -1898,9 +1865,6 @@
       <c r="G16" s="1">
         <v>352611791171463</v>
       </c>
-      <c r="H16" s="1">
-        <v>354150814997107</v>
-      </c>
       <c r="I16" s="1">
         <v>350954043647001</v>
       </c>
@@ -1984,9 +1948,6 @@
       <c r="G17" s="1">
         <v>352611791170044</v>
       </c>
-      <c r="H17" s="1">
-        <v>354150814996901</v>
-      </c>
       <c r="I17" s="1">
         <v>350954042912588</v>
       </c>
@@ -2070,9 +2031,6 @@
       <c r="G18" s="1">
         <v>352611791169947</v>
       </c>
-      <c r="H18" s="1">
-        <v>354150814997008</v>
-      </c>
       <c r="I18" s="1">
         <v>350954042938864</v>
       </c>
@@ -2156,9 +2114,6 @@
       <c r="G19" s="1">
         <v>352611791153180</v>
       </c>
-      <c r="H19" s="1">
-        <v>354150814996885</v>
-      </c>
       <c r="I19" s="1">
         <v>350954042867949</v>
       </c>
@@ -2242,9 +2197,6 @@
       <c r="G20" s="1">
         <v>352611791153040</v>
       </c>
-      <c r="H20" s="1">
-        <v>354150814996042</v>
-      </c>
       <c r="I20" s="1">
         <v>350954042867907</v>
       </c>
@@ -2325,9 +2277,6 @@
       <c r="G21" s="1">
         <v>352611791354382</v>
       </c>
-      <c r="H21" s="1">
-        <v>354150814996943</v>
-      </c>
       <c r="I21" s="1">
         <v>350954042867881</v>
       </c>
@@ -2408,9 +2357,6 @@
       <c r="G22" s="1">
         <v>352611792303545</v>
       </c>
-      <c r="H22" s="1">
-        <v>354150814996927</v>
-      </c>
       <c r="I22" s="1">
         <v>350954042922207</v>
       </c>
@@ -2488,9 +2434,6 @@
       <c r="G23" s="1">
         <v>352611791153123</v>
       </c>
-      <c r="H23" s="1">
-        <v>354150814997164</v>
-      </c>
       <c r="I23" s="1">
         <v>350954042868020</v>
       </c>
@@ -2567,9 +2510,6 @@
       </c>
       <c r="G24" s="1">
         <v>352611791172289</v>
-      </c>
-      <c r="H24" s="1">
-        <v>354150814989427</v>
       </c>
       <c r="I24" s="1">
         <v>350954043082761</v>
